--- a/biology/Botanique/National_Forest/National_Forest.xlsx
+++ b/biology/Botanique/National_Forest/National_Forest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La National Forest est un projet environnemental du centre de l'Angleterre mené par The National Forest Company. Depuis les années 1990, 520 km2 du nord du Leicestershire, du sud du Derbyshire et du sud-est du Staffordshire ont été plantés d'arbres afin de convertir ces espaces en une nouvelle forêt nationale. Elle s'étend à partir de la limite occidentale des abords de Leicester à l'est, jusqu'à Burton upon Trent à l'ouest, et elle doit relier les forêts anciennes de Needwood et de Charnwood.
-En janvier 2018, le gouvernement du Royaume-Uni a rendu public un programme de plantation d'une nouvelle forêt au nord, s'étendant de Liverpool à Hull[1]. Elle longera le parcours Est-Ouest de la M62[2].
+En janvier 2018, le gouvernement du Royaume-Uni a rendu public un programme de plantation d'une nouvelle forêt au nord, s'étendant de Liverpool à Hull. Elle longera le parcours Est-Ouest de la M62.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>La National Forest Company</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La National Forest Company est une organisation à but non lucratif établie en avril 1995 en tant que company limited by guarantee[3]. Elle est soutenue par le Department for Environment, Food and Rural Affairs (Defra), dans le but de convertir un tiers du territoire dans les limites de la National Forest (135 km2) en forêt, en incitant les propriétaires terriens à transformer l'usage de leur terre. Elle est décrite comme « forêt en devenir » et elle est prévue comme un vecteur de croissance du tourisme et de soutien aux emplois régionaux liés à la forêt.
-Environ 8,5 millions d'arbres ont été plantés, ce qui triple la couverture forestière de 6 % à 20%[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La National Forest Company est une organisation à but non lucratif établie en avril 1995 en tant que company limited by guarantee. Elle est soutenue par le Department for Environment, Food and Rural Affairs (Defra), dans le but de convertir un tiers du territoire dans les limites de la National Forest (135 km2) en forêt, en incitant les propriétaires terriens à transformer l'usage de leur terre. Elle est décrite comme « forêt en devenir » et elle est prévue comme un vecteur de croissance du tourisme et de soutien aux emplois régionaux liés à la forêt.
+Environ 8,5 millions d'arbres ont été plantés, ce qui triple la couverture forestière de 6 % à 20%.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Plantations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Concernant les essences, ce sont 85 % d'arbres feuillus originaires de la région qui ont été plantés. Les plus communs sont le chêne anglais, le frêne, le peuplier, le pin noir et le pin d'Écosse[5]. La transformation du paysage a commencé à prendre effet car les premiers arbres ont déjà plus de vingt-cinq ans d'âge. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concernant les essences, ce sont 85 % d'arbres feuillus originaires de la région qui ont été plantés. Les plus communs sont le chêne anglais, le frêne, le peuplier, le pin noir et le pin d'Écosse. La transformation du paysage a commencé à prendre effet car les premiers arbres ont déjà plus de vingt-cinq ans d'âge. 
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Lieux à visiter</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au milieu de la National Forest, on trouve le parc de Conkers, ouvert à la visite, situé près du village de Moira (Leicestershire). Il y en a un autre à Rosliston qui propose aux visiteurs des chemins de randonnée et des aires de jeu.
 Parmi les autres lieux intéressants à visiter, l'on peut citer:
